--- a/medicine/Enfance/Sylvie_Vassallo/Sylvie_Vassallo.xlsx
+++ b/medicine/Enfance/Sylvie_Vassallo/Sylvie_Vassallo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie Vassallo, née le 12 septembre 1963 à Grasse (Alpes-Maritimes), est directrice du Salon du livre et de la presse jeunesse depuis 2001.
 Durant ses études, elle s'engage en politique, devient responsable de l'Union des étudiants communistes puis dirige le Mouvement Jeunes Communistes de France de 1993 à 1997. Au début des années 2000, elle prend ses distances avec cet engagement, alors qu'elle se reconvertit dans le champ de la culture et du livre. Elle développe alors le secteur numérique au salon du livre et de la presse jeunesse, avant d'en prendre la direction et d'y donner une dimension européenne et sociale.
@@ -512,19 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille de l'enseignant Georges Vassallo, maire communiste de Grasse de 1977 à 1983[1], Sylvie Vassallo passe son enfance et son adolescence dans le Sud-Est, à proximité de la frontière transalpine. Elle en garde une pratique courante de l'italien et une inclinaison particulière pour la culture de ce pays. Elle quitte Nice en 1985 pour venir s'installer en région parisienne.
-Formation
-Étudiante à l’Université Nice Sophia Antipolis, Sylvie Vassallo devient titulaire d'une maîtrise d'économie en 1985. Sa passion pour les livres pour enfants et les images la conduit à passer le concours de bibliothécaire, qu'elle obtient en 1998. Depuis, ses responsabilités professionnelles l'ont amené à un travail de création, d'échanges et d'études avec les plus grandes figures de la littérature de jeunesse dont elle est devenue, aujourd'hui, une experte reconnue.
-Parcours
-Sylvie Vassallo s'intéresse au syndicalisme étudiant, au mouvement social et s'engage très jeune au sein du Mouvement Jeunes Communistes de France (MJCF). Elle deviendra successivement rédactrice en chef de son organe de presse (Avant-garde), responsable de l'Union des étudiants communistes et enfin Secrétaire générale de ce mouvement de 1993 à 1997[2]. Elle est aussi présente sur la liste du PCF conduite par l'euro-député Francis Wurtz lors des élections européennes de 1994[2]. Elle quitte le PC peu de temps après son départ du MJCF.
-Arrivée en 1999 au sein de l'équipe du Salon du livre et de la presse jeunesse en Seine-Saint-Denis, elle commence par y développer le secteur numérique avant d'en prendre, deux années plus tard, la direction au départ de sa fondatrice, Henriette Zoughebi[3]. Sous son impulsion, le Salon prend une dimension européenne[4], ce qui lui vaut d'être désormais reconnu comme l'un des plus grands festivals littéraires jeunesse en Europe. Son goût pour l'illustration la pousse à s'investir de façon concrète dans le commissariat des expositions qui sont présentées chaque année. Elle participe également à la création d'autres expositions autour de la littérature jeunesse comme "Spirou, un héros dynamique", accueillie à la Cité internationale de la Bande Dessinée et de l'image (Angoulême, 2013).
-En 2011, elle crée "l'école du livre de jeunesse", un centre de formation à la médiation littéraire dédié à toutes les formes de narration pour jeunes et enfants. Les réflexions et la création d'outils de médiation dans le domaine du numérique et les projets d'actions littéraires et sociales en direction des publics éloignés du livre font également partie des axes prioritaires qu'elle a mis en œuvre pour favoriser l'accès à la lecture et la culture pour tous[5],[6].
-Mandats électifs
-De 2008 à 2014, Sylvie Vassallo a été conseillère municipale de Vitry-sur-Seine, sa ville de résidence dans le Val de Marne (90.000 hab), chargée de la lecture publique[7]. Elle siège au sein d'un groupe d'élus alternatifs et progressistes associés localement à Europe Écologie Les Verts[8].
-Autres activités
-Elle est à l'origine de la création du projet européen Transbook plateforme de réflexion et d'action sur la transition numérique. Elle participe à l'équipe de chroniqueurs culture d'une émission culturelle de BFM business [1]. Elle participe au Conseil d’administration de la Philharmonie de Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille de l'enseignant Georges Vassallo, maire communiste de Grasse de 1977 à 1983, Sylvie Vassallo passe son enfance et son adolescence dans le Sud-Est, à proximité de la frontière transalpine. Elle en garde une pratique courante de l'italien et une inclinaison particulière pour la culture de ce pays. Elle quitte Nice en 1985 pour venir s'installer en région parisienne.
 </t>
         </is>
       </c>
@@ -550,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nommée chevalier des Arts et des lettres en janvier 2013[9] et chevalier de la Légion d'honneur en mai 2015[10].
-Début 2016, elle intègre le collège des administrateurs de La Philharmonie de Paris.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étudiante à l’Université Nice Sophia Antipolis, Sylvie Vassallo devient titulaire d'une maîtrise d'économie en 1985. Sa passion pour les livres pour enfants et les images la conduit à passer le concours de bibliothécaire, qu'elle obtient en 1998. Depuis, ses responsabilités professionnelles l'ont amené à un travail de création, d'échanges et d'études avec les plus grandes figures de la littérature de jeunesse dont elle est devenue, aujourd'hui, une experte reconnue.
 </t>
         </is>
       </c>
@@ -582,10 +591,159 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvie Vassallo s'intéresse au syndicalisme étudiant, au mouvement social et s'engage très jeune au sein du Mouvement Jeunes Communistes de France (MJCF). Elle deviendra successivement rédactrice en chef de son organe de presse (Avant-garde), responsable de l'Union des étudiants communistes et enfin Secrétaire générale de ce mouvement de 1993 à 1997. Elle est aussi présente sur la liste du PCF conduite par l'euro-député Francis Wurtz lors des élections européennes de 1994. Elle quitte le PC peu de temps après son départ du MJCF.
+Arrivée en 1999 au sein de l'équipe du Salon du livre et de la presse jeunesse en Seine-Saint-Denis, elle commence par y développer le secteur numérique avant d'en prendre, deux années plus tard, la direction au départ de sa fondatrice, Henriette Zoughebi. Sous son impulsion, le Salon prend une dimension européenne, ce qui lui vaut d'être désormais reconnu comme l'un des plus grands festivals littéraires jeunesse en Europe. Son goût pour l'illustration la pousse à s'investir de façon concrète dans le commissariat des expositions qui sont présentées chaque année. Elle participe également à la création d'autres expositions autour de la littérature jeunesse comme "Spirou, un héros dynamique", accueillie à la Cité internationale de la Bande Dessinée et de l'image (Angoulême, 2013).
+En 2011, elle crée "l'école du livre de jeunesse", un centre de formation à la médiation littéraire dédié à toutes les formes de narration pour jeunes et enfants. Les réflexions et la création d'outils de médiation dans le domaine du numérique et les projets d'actions littéraires et sociales en direction des publics éloignés du livre font également partie des axes prioritaires qu'elle a mis en œuvre pour favoriser l'accès à la lecture et la culture pour tous,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mandats électifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2008 à 2014, Sylvie Vassallo a été conseillère municipale de Vitry-sur-Seine, sa ville de résidence dans le Val de Marne (90.000 hab), chargée de la lecture publique. Elle siège au sein d'un groupe d'élus alternatifs et progressistes associés localement à Europe Écologie Les Verts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est à l'origine de la création du projet européen Transbook plateforme de réflexion et d'action sur la transition numérique. Elle participe à l'équipe de chroniqueurs culture d'une émission culturelle de BFM business . Elle participe au Conseil d’administration de la Philharmonie de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommée chevalier des Arts et des lettres en janvier 2013 et chevalier de la Légion d'honneur en mai 2015.
+Début 2016, elle intègre le collège des administrateurs de La Philharmonie de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Vassallo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Ouvrages publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2001 : Les enfants et les livres d’abord ! - Article, Revue Spirale no 20, 2001, Éditions Érès
 2003 : Des roses, des choux, des bébés et des livres, Revue Spirale n° 28, Éditions Érès
